--- a/problemas_datos.xlsx
+++ b/problemas_datos.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
   <si>
     <t>Pregunta</t>
   </si>
@@ -34,6 +34,30 @@
   </si>
   <si>
     <t>data/output/10044/4275748_p16</t>
+  </si>
+  <si>
+    <t>data/output/10088/4277181</t>
+  </si>
+  <si>
+    <t>N° de subpreguntas incorrecto para estudiante 4277181,                    se encontraron 166 subpreguntas</t>
+  </si>
+  <si>
+    <t>data/output/10121/4278294</t>
+  </si>
+  <si>
+    <t>N° de subpreguntas incorrecto para estudiante 4278294,                    se encontraron 166 subpreguntas</t>
+  </si>
+  <si>
+    <t>data/output/10157/4279607_p20</t>
+  </si>
+  <si>
+    <t>data/output/10157/4279607_p4</t>
+  </si>
+  <si>
+    <t>data/output/10157/4279607</t>
+  </si>
+  <si>
+    <t>N° de subpreguntas incorrecto para estudiante 4279607,                    se encontraron 155 subpreguntas</t>
   </si>
 </sst>
 </file>
@@ -382,10 +406,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -417,6 +441,46 @@
         <v>3</v>
       </c>
     </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/problemas_datos.xlsx
+++ b/problemas_datos.xlsx
@@ -1,89 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeconchao\Desktop\Repos\repo-simce\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
-  <si>
-    <t>Pregunta</t>
-  </si>
-  <si>
-    <t>Error</t>
-  </si>
-  <si>
-    <t>data/output/10044/4275748_p19</t>
-  </si>
-  <si>
-    <t>Pregunta no pudo ser procesada</t>
-  </si>
-  <si>
-    <t>data/output/10044/4275748_p16</t>
-  </si>
-  <si>
-    <t>data/output/10088/4277181</t>
-  </si>
-  <si>
-    <t>N° de subpreguntas incorrecto para estudiante 4277181,                    se encontraron 166 subpreguntas</t>
-  </si>
-  <si>
-    <t>data/output/10121/4278294</t>
-  </si>
-  <si>
-    <t>N° de subpreguntas incorrecto para estudiante 4278294,                    se encontraron 166 subpreguntas</t>
-  </si>
-  <si>
-    <t>data/output/10157/4279607_p20</t>
-  </si>
-  <si>
-    <t>data/output/10157/4279607_p4</t>
-  </si>
-  <si>
-    <t>data/output/10157/4279607</t>
-  </si>
-  <si>
-    <t>N° de subpreguntas incorrecto para estudiante 4279607,                    se encontraron 155 subpreguntas</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -102,22 +54,81 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -405,84 +416,240 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="30" bestFit="1" customWidth="1"/>
+    <col width="30" bestFit="1" customWidth="1" min="1" max="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" t="s">
-        <v>12</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Pregunta</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>data/output/10044/4275748_p19</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Pregunta no pudo ser procesada</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>data/output/10044/4275748_p16</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Pregunta no pudo ser procesada</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>data/output/10088/4277181</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>N° de subpreguntas incorrecto para estudiante 4277181,                    se encontraron 166 subpreguntas</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>data/output/10121/4278294</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>N° de subpreguntas incorrecto para estudiante 4278294,                    se encontraron 166 subpreguntas</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>data/output/10157/4279607_p20</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Pregunta no pudo ser procesada</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>data/output/10157/4279607_p4</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Pregunta no pudo ser procesada</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>data/output/10157/4279607</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>N° de subpreguntas incorrecto para estudiante 4279607,                    se encontraron 155 subpreguntas</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>data\output\10157\4279607_p24</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Pregunta no pudo ser procesada</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>data\output\10157\4279607_p23</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Pregunta no pudo ser procesada</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>data\output\10157\4279607_p22</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Pregunta no pudo ser procesada</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>data\output\10157\4279607_p21</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Pregunta no pudo ser procesada</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>data\output\10157\4279607_p20</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Pregunta no pudo ser procesada</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>data\output\10157\4279607_p4</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Pregunta no pudo ser procesada</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>data\output\10157\4279607_p5</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Pregunta no pudo ser procesada</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>data\output\10157\4279607_p6</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Pregunta no pudo ser procesada</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>data\output\10157\4279607</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>N° de subpreguntas incorrecto para estudiante 4279607,                    se encontraron 131 subpreguntas</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>data\output\10121\4278294</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>N° de subpreguntas incorrecto para estudiante 4278294,                    se encontraron 166 subpreguntas</t>
+        </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/problemas_datos.xlsx
+++ b/problemas_datos.xlsx
@@ -1,41 +1,95 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeconchao\Desktop\Repos\repo-simce\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
+  <si>
+    <t>Pregunta</t>
+  </si>
+  <si>
+    <t>Error</t>
+  </si>
+  <si>
+    <t>Pregunta no pudo ser procesada</t>
+  </si>
+  <si>
+    <t>data\output\10157\4279607_p24</t>
+  </si>
+  <si>
+    <t>data\output\10157\4279607_p23</t>
+  </si>
+  <si>
+    <t>data\output\10157\4279607_p22</t>
+  </si>
+  <si>
+    <t>data\output\10157\4279607_p21</t>
+  </si>
+  <si>
+    <t>data\output\10157\4279607_p20</t>
+  </si>
+  <si>
+    <t>data\output\10157\4279607_p4</t>
+  </si>
+  <si>
+    <t>data\output\10157\4279607_p5</t>
+  </si>
+  <si>
+    <t>data\output\10157\4279607_p6</t>
+  </si>
+  <si>
+    <t>data\output\10157\4279607</t>
+  </si>
+  <si>
+    <t>N° de subpreguntas incorrecto para estudiante 4279607,                    se encontraron 131 subpreguntas</t>
+  </si>
+  <si>
+    <t>data\output\10044\4275748_p19</t>
+  </si>
+  <si>
+    <t>data\output\10044\4275748_p16</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -54,81 +108,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -416,240 +411,116 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col width="30" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col min="1" max="1" width="30" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Pregunta</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Error</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>data/output/10044/4275748_p19</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Pregunta no pudo ser procesada</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>data/output/10044/4275748_p16</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Pregunta no pudo ser procesada</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>data/output/10088/4277181</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>N° de subpreguntas incorrecto para estudiante 4277181,                    se encontraron 166 subpreguntas</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>data/output/10121/4278294</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>N° de subpreguntas incorrecto para estudiante 4278294,                    se encontraron 166 subpreguntas</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>data/output/10157/4279607_p20</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Pregunta no pudo ser procesada</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>data/output/10157/4279607_p4</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Pregunta no pudo ser procesada</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>data/output/10157/4279607</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>N° de subpreguntas incorrecto para estudiante 4279607,                    se encontraron 155 subpreguntas</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>data\output\10157\4279607_p24</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Pregunta no pudo ser procesada</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>data\output\10157\4279607_p23</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Pregunta no pudo ser procesada</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>data\output\10157\4279607_p22</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Pregunta no pudo ser procesada</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>data\output\10157\4279607_p21</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Pregunta no pudo ser procesada</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>data\output\10157\4279607_p20</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Pregunta no pudo ser procesada</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>data\output\10157\4279607_p4</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Pregunta no pudo ser procesada</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>data\output\10157\4279607_p5</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Pregunta no pudo ser procesada</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>data\output\10157\4279607_p6</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Pregunta no pudo ser procesada</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>data\output\10157\4279607</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>N° de subpreguntas incorrecto para estudiante 4279607,                    se encontraron 131 subpreguntas</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>data\output\10121\4278294</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>N° de subpreguntas incorrecto para estudiante 4278294,                    se encontraron 166 subpreguntas</t>
-        </is>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
--- a/problemas_datos.xlsx
+++ b/problemas_datos.xlsx
@@ -1,95 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeconchao\Desktop\Repos\repo-simce\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
-  <si>
-    <t>Pregunta</t>
-  </si>
-  <si>
-    <t>Error</t>
-  </si>
-  <si>
-    <t>Pregunta no pudo ser procesada</t>
-  </si>
-  <si>
-    <t>data\output\10157\4279607_p24</t>
-  </si>
-  <si>
-    <t>data\output\10157\4279607_p23</t>
-  </si>
-  <si>
-    <t>data\output\10157\4279607_p22</t>
-  </si>
-  <si>
-    <t>data\output\10157\4279607_p21</t>
-  </si>
-  <si>
-    <t>data\output\10157\4279607_p20</t>
-  </si>
-  <si>
-    <t>data\output\10157\4279607_p4</t>
-  </si>
-  <si>
-    <t>data\output\10157\4279607_p5</t>
-  </si>
-  <si>
-    <t>data\output\10157\4279607_p6</t>
-  </si>
-  <si>
-    <t>data\output\10157\4279607</t>
-  </si>
-  <si>
-    <t>N° de subpreguntas incorrecto para estudiante 4279607,                    se encontraron 131 subpreguntas</t>
-  </si>
-  <si>
-    <t>data\output\10044\4275748_p19</t>
-  </si>
-  <si>
-    <t>data\output\10044\4275748_p16</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -108,22 +54,81 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -411,116 +416,672 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="30" bestFit="1" customWidth="1"/>
+    <col width="30" bestFit="1" customWidth="1" min="1" max="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" t="s">
-        <v>2</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Pregunta</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>data\output\10157\4279607_p24</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Pregunta no pudo ser procesada</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>data\output\10157\4279607_p23</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Pregunta no pudo ser procesada</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>data\output\10157\4279607_p22</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Pregunta no pudo ser procesada</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>data\output\10157\4279607_p21</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Pregunta no pudo ser procesada</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>data\output\10157\4279607_p20</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Pregunta no pudo ser procesada</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>data\output\10157\4279607_p4</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Pregunta no pudo ser procesada</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>data\output\10157\4279607_p5</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Pregunta no pudo ser procesada</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>data\output\10157\4279607_p6</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Pregunta no pudo ser procesada</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>data\output\10157\4279607</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>N° de subpreguntas incorrecto para estudiante 4279607,                    se encontraron 131 subpreguntas</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>data\output\10044\4275748_p19</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Pregunta no pudo ser procesada</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>data\output\10044\4275748_p16</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Pregunta no pudo ser procesada</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>data\output\10044\4275764_p29_1</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Subregunta no pudo ser procesada</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>data\output\00206\4007946_p2</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Pregunta no pudo ser procesada</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>data\output\00206\4007946_p3</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Pregunta no pudo ser procesada</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>data\output\00206\4007946_p26</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Pregunta no pudo ser procesada</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>data\output\00206\4007946_p25</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Pregunta no pudo ser procesada</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>data\output\00206\4007946</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>N° de subpreguntas incorrecto para estudiante 4007946,                    se encontraron 130 subpreguntas</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>data\output\00206\4007953_p21</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Pregunta no pudo ser procesada</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>data\output\00206\4007953</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>N° de subpreguntas incorrecto para estudiante 4007953,                    se encontraron 161 subpreguntas</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>data\output\00206\4007931_p24</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Pregunta no pudo ser procesada</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>data\output\00206\4007931</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>N° de subpreguntas incorrecto para estudiante 4007931,                    se encontraron 159 subpreguntas</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>data\output\00206\4007960_p7</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Pregunta no pudo ser procesada</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>data\output\00206\4007960</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>N° de subpreguntas incorrecto para estudiante 4007960,                    se encontraron 159 subpreguntas</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>data\output\00206\4007931_p4</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Pregunta no pudo ser procesada</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>data\output\00206\4007946_p29</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Pregunta no pudo ser procesada</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>data\output\00209\4008016</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>N° de subpreguntas incorrecto para estudiante 4008016,                    se encontraron 152 subpreguntas</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>data\output\00209\4008016_p2</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Pregunta no pudo ser procesada</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>data\output\00209\4008016_p16</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Pregunta no pudo ser procesada</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>data\output\01216\4029272</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>N° de subpreguntas incorrecto para estudiante 4029272,                    se encontraron 164 subpreguntas</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>data\output\01216\4029272_p29</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Pregunta no pudo ser procesada</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>data\output\01216\4029272_p21_1</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Subregunta no pudo ser procesada</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>data\output\01269\4031023</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>N° de subpreguntas incorrecto para estudiante 4031023, se encontraron 166 subpreguntas {'origen': {'p6': 8}, 'baseline': {'p6': 7}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>data\output\01361\4034269</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>N° de subpreguntas incorrecto para estudiante 4034269, se encontraron 163 subpreguntas {'origen': {'p13': 3, 'p14': 2}, 'baseline': {'p13': 4, 'p14': 7}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>data\output\01401\4035677</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>N° de subpreguntas incorrecto para estudiante 4035677, se encontraron 168 subpreguntas {'origen': {'p13': 7, 'p14': 5, 'p15': 4, 'p17': 6, 'p19': 4, 'p23': 6, 'p24': 11, 'p25': 6, 'p26': 4, 'p27': 2, 'p28': 3}, 'baseline': {'p13': 4, 'p14': 7, 'p15': 5, 'p17': 4, 'p19': 6, 'p23': 4, 'p24': 6, 'p25': 11, 'p26': 6, 'p27': 4, 'p28': 2}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>data\output\01401\4035677_p14_1</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Subregunta no pudo ser procesada</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>data\output\01487\4039081</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>N° de subpreguntas incorrecto para estudiante 4039081, se encontraron 163 subpreguntas {'origen': {'p2': 10}, 'baseline': {'p2': 12}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>data\output\01489\4039173</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>N° de subpreguntas incorrecto para estudiante 4039173, se encontraron 166 subpreguntas {'origen': {'p26': 7}, 'baseline': {'p26': 6}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>data\output\01506\4039883</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>N° de subpreguntas incorrecto para estudiante 4039883, se encontraron 166 subpreguntas {'origen': {'p28': 3}, 'baseline': {'p28': 2}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>data\output\00944\4024028_p22</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Pregunta no pudo ser procesada</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>data\output\00944\4024028</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>N° de subpreguntas incorrecto para estudiante 4024028, se encontraron 164 subpreguntas {'origen': {'p13': 7, 'p14': 5, 'p15': 4, 'p17': 6, 'p19': 4, 'p23': 3}, 'baseline': {'p13': 4, 'p14': 7, 'p15': 5, 'p17': 4, 'p19': 6, 'p23': 4}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>data\output\00944\4024028_p16_1</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Subregunta no pudo ser procesada</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>data\output\01217\4029285_p7</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Pregunta no pudo ser procesada</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>data\output\01217\4029285</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>N° de subpreguntas incorrecto para estudiante 4029285, se encontraron 164 subpreguntas {'origen': {'p6': 6, 'p8': 6, 'p9': 8, 'p10': 5, 'p11': 8, 'p12': 9}, 'baseline': {'p6': 7, 'p8': 8, 'p9': 5, 'p10': 8, 'p11': 9, 'p12': 4}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>data\output\01217\4029285_p6_1</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Subregunta no pudo ser procesada</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>data\output\01217\4029285_p18</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Pregunta no pudo ser procesada</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>data\output\01606\4044011_p26</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Pregunta no pudo ser procesada</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>data\output\01606\4044011</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>N° de subpreguntas incorrecto para estudiante 4044011, se encontraron 162 subpreguntas {'origen': {'p13': 7, 'p14': 5, 'p15': 4, 'p17': 6, 'p19': 4, 'p23': 6, 'p24': 11, 'p25': 6, 'p27': 1}, 'baseline': {'p13': 4, 'p14': 7, 'p15': 5, 'p17': 4, 'p19': 6, 'p23': 4, 'p24': 6, 'p25': 11, 'p27': 4}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>data\output\01672\4046262_p25</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Pregunta no pudo ser procesada</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>data\output\01672\4046262_p17</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Pregunta no pudo ser procesada</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>data\output\01676\4046414_p14</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Pregunta no pudo ser procesada</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>data\output\01799\4051280</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>N° de subpreguntas incorrecto para estudiante 4051280, se encontraron 164 subpreguntas {'origen': {'p24': 5}, 'baseline': {'p24': 6}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>data\output\01998\4054806_p14</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Pregunta no pudo ser procesada</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>data\output\01998\4054806_p8</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Pregunta no pudo ser procesada</t>
+        </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/problemas_datos.xlsx
+++ b/problemas_datos.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -529,6 +529,30 @@
         </is>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>data\output\output_subpreg\01672\4046262</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>N° de subpreguntas incorrecto para estudiante 4046262, se encontraron 88 subpreguntas {'origen': {'p12': 7, 'p13': 5, 'p16': 6, 'p23': 6, 'p24': 11, 'p29': 11}, 'baseline': {'p12': 4, 'p13': 4, 'p16': 4, 'p23': 4, 'p24': 6, 'p29': 3}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>data\output\output_subpreg\01672\4046256</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>N° de subpreguntas incorrecto para estudiante 4046256, se encontraron 88 subpreguntas {'origen': {'p29': 11}, 'baseline': {'p29': 3}}</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/problemas_datos.xlsx
+++ b/problemas_datos.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -553,6 +553,198 @@
         </is>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>data\output\output_subpreg\05197\4142763</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>N° de subpreguntas incorrecto para estudiante 4142763,        se encontraron 18 subpreguntas {'origen': {}, 'baseline': {}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>data\output\output_subpreg\10000\4274074</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>N° de subpreguntas incorrecto para estudiante 4274074,        se encontraron 18 subpreguntas {'origen': {'p28': 11, 'p29': 6}, 'baseline': {'p28': 2, 'p29': 3}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>data\output\output_subpreg\10004\4274235</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>N° de subpreguntas incorrecto para estudiante 4274235,        se encontraron 18 subpreguntas {'origen': {'p28': 11, 'p29': 6}, 'baseline': {'p28': 2, 'p29': 3}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>data\output\output_subpreg\10058\4276323</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>N° de subpreguntas incorrecto para estudiante 4276323,        se encontraron 18 subpreguntas {'origen': {}, 'baseline': {}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>data\output\output_subpreg\10058\4276326</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>N° de subpreguntas incorrecto para estudiante 4276326,        se encontraron 18 subpreguntas {'origen': {}, 'baseline': {}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>data\output\output_subpreg\10058\4276319_p3</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Pregunta no pudo ser procesada</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>data\output\output_subpreg\10058\4276319</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>N° de subpreguntas incorrecto para estudiante 4276319,        se encontraron 12 subpreguntas {'origen': {}, 'baseline': {}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>data\output\output_subpreg\10133\4278783</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>N° de subpreguntas incorrecto para estudiante 4278783,        se encontraron 18 subpreguntas {'origen': {}, 'baseline': {}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>data\output\output_subpreg\10058\4276315</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>N° de subpreguntas incorrecto para estudiante 4276315,        se encontraron 18 subpreguntas {'origen': {}, 'baseline': {}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>data\output\output_subpreg\10058\4276307</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>N° de subpreguntas incorrecto para estudiante 4276307,        se encontraron 18 subpreguntas {'origen': {}, 'baseline': {}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>data\output\output_subpreg\10162\4279800</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>N° de subpreguntas incorrecto para estudiante 4279800,        se encontraron 18 subpreguntas {'origen': {}, 'baseline': {}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>data\output\output_subpreg\10168\4280045</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>N° de subpreguntas incorrecto para estudiante 4280045,        se encontraron 18 subpreguntas {'origen': {}, 'baseline': {}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>data\output\output_subpreg\10095\4277399</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>N° de subpreguntas incorrecto para estudiante 4277399,        se encontraron 18 subpreguntas {'origen': {}, 'baseline': {}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>data\output\output_subpreg\10171\4280179</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>N° de subpreguntas incorrecto para estudiante 4280179,        se encontraron 18 subpreguntas {'origen': {}, 'baseline': {}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>data\output\output_subpreg\10200\4281147</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>N° de subpreguntas incorrecto para estudiante 4281147,        se encontraron 18 subpreguntas {'origen': {}, 'baseline': {}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>data\output\output_subpreg\10092\4277254</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>N° de subpreguntas incorrecto para estudiante 4277254,        se encontraron 18 subpreguntas {'origen': {}, 'baseline': {}}</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/problemas_datos.xlsx
+++ b/problemas_datos.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -745,6 +745,30 @@
         </is>
       </c>
     </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>data\output\output_subpreg\00093\4003683_p0</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Pregunta no pudo ser procesada</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>data\output\output_subpreg\00093\4003683</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>N° de subpreguntas incorrecto para estudiante 4003683, se encontraron 168 subpreguntas {'origen': {'p0': 3}, 'baseline': {'p0': nan}}</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/problemas_datos.xlsx
+++ b/problemas_datos.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B29"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -769,6 +769,66 @@
         </is>
       </c>
     </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>data\output\output_subpreg\00093\4003684_p_</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Pregunta no pudo ser procesada</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>data\output\output_subpreg\00206\4007946_p2</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Pregunta no pudo ser procesada</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>data\output\output_subpreg\00206\4007946_p3</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Pregunta no pudo ser procesada</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>data\output\output_subpreg\00206\4007946_p26</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Pregunta no pudo ser procesada</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>data\output\output_subpreg\00206\4007946_p25</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Pregunta no pudo ser procesada</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/problemas_datos.xlsx
+++ b/problemas_datos.xlsx
@@ -1,60 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repos_pesaos\repo-simce\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>Pregunta</t>
-  </si>
-  <si>
-    <t>Error</t>
-  </si>
-  <si>
-    <t>Nivel</t>
-  </si>
-  <si>
-    <t>data\output\output_subpreg\CE\00199\4000081</t>
-  </si>
-  <si>
-    <t>No existen archivos disponibles para estudiante serie 4000081</t>
-  </si>
-  <si>
-    <t>Estudiante</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -73,21 +46,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -375,39 +407,72 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="44.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="56.7109375" bestFit="1" customWidth="1"/>
+    <col width="44.28515625" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="56.7109375" bestFit="1" customWidth="1" min="2" max="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Pregunta</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Nivel</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>data\output\output_subpreg\CE\00199\4000081</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>No existen archivos disponibles para estudiante serie 4000081</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Estudiante</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>data\output\output_subpreg\CE\00200\4000082</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>No existen archivos disponibles para estudiante serie 4000082</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Estudiante</t>
+        </is>
       </c>
     </row>
   </sheetData>
